--- a/data/trans_orig/P16A_n_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P16A_n_R-Edad-trans_orig.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>16-24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,32</t>
+          <t>0,33</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,45</t>
+          <t>0,44</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,22; 0,42</t>
+          <t>0,23; 0,45</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,47; 0,8</t>
+          <t>0,46; 0,79</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,14 +779,14 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,37; 0,57</t>
+          <t>0,36; 0,55</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>25-34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,46</t>
+          <t>0,48</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,73</t>
+          <t>0,77</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,6</t>
+          <t>0,64</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,37; 0,56</t>
+          <t>0,38; 0,58</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,63; 0,84</t>
+          <t>0,67; 0,88</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,14 +919,14 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,53; 0,68</t>
+          <t>0,56; 0,72</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,84</t>
+          <t>0,81</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,74</t>
+          <t>0,73</t>
         </is>
       </c>
     </row>
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,71; 0,94</t>
+          <t>0,57; 0,93</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,14 +1059,14 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0,66; 0,82</t>
+          <t>0,62; 0,8</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>45-54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1091,39 +1091,39 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>0,84</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0,98</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>1,35</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>1,14</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>1,35</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>0,81</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
           <t>1,08</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>0,98</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>1,35</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>1,14</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>1,4</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>0,81</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>1,08</t>
-        </is>
-      </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
           <t>0,97</t>
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>1,24</t>
+          <t>1,07</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,82; 1,25</t>
+          <t>0,37; 1,21</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>1,28; 1,6</t>
+          <t>1,15; 1,52</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,14 +1199,14 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>1,11; 1,37</t>
+          <t>0,66; 1,3</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1231,7 +1231,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>1,65</t>
+          <t>1,66</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1299,7 +1299,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,52; 1,79</t>
+          <t>1,54; 1,81</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1346,7 +1346,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>65 y más</t>
+          <t>65-74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>1,89</t>
+          <t>1,62</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>2,6</t>
+          <t>2,33</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>2,17</t>
+          <t>1,92</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>2,51</t>
+          <t>2,14</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>2,33</t>
+          <t>2,25</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>3,23</t>
+          <t>2,89</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>2,72</t>
+          <t>2,49</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>3,47</t>
+          <t>3,22</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>2,15</t>
+          <t>1,96</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>2,96</t>
+          <t>2,63</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>2,48</t>
+          <t>2,22</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>3,08</t>
+          <t>2,81</t>
         </is>
       </c>
     </row>
@@ -1424,69 +1424,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1,77; 2,04</t>
+          <t>1,46; 1,8</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>2,47; 2,77</t>
+          <t>2,14; 2,57</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>2,05; 2,31</t>
+          <t>1,75; 2,1</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>2,38; 2,64</t>
+          <t>1,97; 2,31</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>2,21; 2,46</t>
+          <t>2,08; 2,44</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>3,08; 3,39</t>
+          <t>2,68; 3,11</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>2,58; 2,88</t>
+          <t>2,28; 2,69</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>3,33; 3,64</t>
+          <t>2,77; 3,72</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>2,05; 2,24</t>
+          <t>1,84; 2,09</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>2,84; 3,07</t>
+          <t>2,48; 2,78</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>2,38; 2,58</t>
+          <t>2,1; 2,37</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>2,96; 3,25</t>
+          <t>2,46; 3,46</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>75 o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,72</t>
+          <t>2,27</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>1,01</t>
+          <t>2,94</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,92</t>
+          <t>2,49</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>1,24</t>
+          <t>2,99</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>1,14</t>
+          <t>2,42</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>1,62</t>
+          <t>3,54</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>1,4</t>
+          <t>2,95</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>1,82</t>
+          <t>3,94</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,93</t>
+          <t>2,36</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>1,32</t>
+          <t>3,3</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>1,16</t>
+          <t>2,77</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>1,54</t>
+          <t>3,56</t>
         </is>
       </c>
     </row>
@@ -1564,74 +1564,214 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>2,05; 2,5</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>2,72; 3,22</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>2,33; 2,68</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>2,78; 3,23</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>2,24; 2,58</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>3,34; 3,77</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>2,75; 3,17</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>3,75; 4,11</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>2,23; 2,51</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>3,14; 3,45</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>2,63; 2,91</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>3,42; 3,71</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Media</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>0,72</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>1,01</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>0,92</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>1,15</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>1,14</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>1,62</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>1,4</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>1,84</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>0,93</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>1,32</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>1,16</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>1,51</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
           <t>0,68; 0,76</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
+      <c r="D19" s="2" t="inlineStr">
         <is>
           <t>0,97; 1,07</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>0,88; 0,96</t>
         </is>
       </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>1,16; 1,31</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>0,89; 1,26</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
         <is>
           <t>1,1; 1,2</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
+      <c r="H19" s="2" t="inlineStr">
         <is>
           <t>1,56; 1,68</t>
         </is>
       </c>
-      <c r="I17" s="2" t="inlineStr">
+      <c r="I19" s="2" t="inlineStr">
         <is>
           <t>1,34; 1,46</t>
         </is>
       </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>1,72; 2,03</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>1,68; 2,22</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
         <is>
           <t>0,9; 0,97</t>
         </is>
       </c>
-      <c r="L17" s="2" t="inlineStr">
+      <c r="L19" s="2" t="inlineStr">
         <is>
           <t>1,28; 1,37</t>
         </is>
       </c>
-      <c r="M17" s="2" t="inlineStr">
+      <c r="M19" s="2" t="inlineStr">
         <is>
           <t>1,13; 1,2</t>
         </is>
       </c>
-      <c r="N17" s="2" t="inlineStr">
-        <is>
-          <t>1,48; 1,67</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>1,37; 1,71</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1642,6 +1782,7 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A18:A19"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trans_orig/P16A_n_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P16A_n_R-Edad-trans_orig.xlsx
@@ -734,22 +734,22 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,22; 0,34</t>
+          <t>0,22; 0,33</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,23; 0,45</t>
+          <t>0,22; 0,45</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,45; 0,59</t>
+          <t>0,46; 0,6</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,62; 0,79</t>
+          <t>0,62; 0,8</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,46; 0,79</t>
+          <t>0,44; 0,76</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -769,7 +769,7 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0,47; 0,57</t>
+          <t>0,46; 0,57</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
@@ -869,7 +869,7 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,43; 0,64</t>
+          <t>0,43; 0,67</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -879,39 +879,39 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,38; 0,58</t>
+          <t>0,39; 0,58</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,56; 0,7</t>
+          <t>0,56; 0,71</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,8; 0,96</t>
+          <t>0,79; 0,96</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
+          <t>0,61; 0,76</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>0,67; 0,88</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>0,38; 0,47</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
           <t>0,62; 0,76</t>
         </is>
       </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>0,67; 0,88</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>0,39; 0,47</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>0,62; 0,76</t>
-        </is>
-      </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
           <t>0,5; 0,6</t>
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,56; 0,72</t>
+          <t>0,57; 0,74</t>
         </is>
       </c>
     </row>
@@ -1009,37 +1009,37 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,5; 0,66</t>
+          <t>0,49; 0,65</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,43; 0,55</t>
+          <t>0,44; 0,56</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,54; 0,75</t>
+          <t>0,55; 0,76</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,62; 0,77</t>
+          <t>0,61; 0,78</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,94; 1,14</t>
+          <t>0,95; 1,16</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,7; 0,85</t>
+          <t>0,71; 0,85</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,57; 0,93</t>
+          <t>0,63; 0,92</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1054,12 +1054,12 @@
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,59; 0,68</t>
+          <t>0,59; 0,69</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0,62; 0,8</t>
+          <t>0,62; 0,81</t>
         </is>
       </c>
     </row>
@@ -1144,7 +1144,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,56; 0,75</t>
+          <t>0,56; 0,77</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -1154,12 +1154,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,73; 0,89</t>
+          <t>0,72; 0,89</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,37; 1,21</t>
+          <t>0,36; 1,21</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1169,22 +1169,22 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>1,24; 1,48</t>
+          <t>1,22; 1,48</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>1,03; 1,25</t>
+          <t>1,04; 1,26</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>1,15; 1,52</t>
+          <t>1,16; 1,5</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0,73; 0,89</t>
+          <t>0,74; 0,89</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0,66; 1,3</t>
+          <t>0,62; 1,3</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,19; 1,45</t>
+          <t>1,18; 1,44</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,36; 1,64</t>
+          <t>1,35; 1,61</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,18; 1,47</t>
+          <t>1,18; 1,46</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,54; 1,81</t>
+          <t>1,52; 1,8</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>1,48; 1,81</t>
+          <t>1,48; 1,79</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>2,0; 2,37</t>
+          <t>1,99; 2,36</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>1,78; 2,11</t>
+          <t>1,78; 2,12</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>1,99; 2,27</t>
+          <t>1,99; 2,26</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>1,38; 1,57</t>
+          <t>1,37; 1,57</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>1,72; 1,94</t>
+          <t>1,73; 1,95</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>1,52; 1,73</t>
+          <t>1,52; 1,75</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>1,8; 1,98</t>
+          <t>1,79; 1,99</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1,46; 1,8</t>
+          <t>1,46; 1,82</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>2,14; 2,57</t>
+          <t>2,14; 2,56</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1,75; 2,1</t>
+          <t>1,74; 2,1</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>1,97; 2,31</t>
+          <t>1,98; 2,3</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>2,08; 2,44</t>
+          <t>2,09; 2,44</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>2,68; 3,11</t>
+          <t>2,66; 3,11</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>2,28; 2,69</t>
+          <t>2,32; 2,7</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>2,77; 3,72</t>
+          <t>2,76; 3,68</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>1,84; 2,09</t>
+          <t>1,85; 2,1</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>2,48; 2,78</t>
+          <t>2,47; 2,79</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>2,1; 2,37</t>
+          <t>2,09; 2,35</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>2,46; 3,46</t>
+          <t>2,47; 3,36</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2,05; 2,5</t>
+          <t>2,07; 2,51</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>2,72; 3,22</t>
+          <t>2,71; 3,21</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>2,33; 2,68</t>
+          <t>2,32; 2,67</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>2,78; 3,23</t>
+          <t>2,81; 3,21</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>2,24; 2,58</t>
+          <t>2,25; 2,6</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>3,34; 3,77</t>
+          <t>3,34; 3,75</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>2,75; 3,17</t>
+          <t>2,76; 3,15</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>3,75; 4,11</t>
+          <t>3,76; 4,12</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>2,23; 2,51</t>
+          <t>2,24; 2,51</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>3,14; 3,45</t>
+          <t>3,15; 3,46</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>2,63; 2,91</t>
+          <t>2,63; 2,92</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>3,42; 3,71</t>
+          <t>3,43; 3,71</t>
         </is>
       </c>
     </row>
@@ -1704,12 +1704,12 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0,68; 0,76</t>
+          <t>0,68; 0,75</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0,97; 1,07</t>
+          <t>0,96; 1,07</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
@@ -1719,12 +1719,12 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0,89; 1,26</t>
+          <t>0,89; 1,27</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>1,1; 1,2</t>
+          <t>1,09; 1,19</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
@@ -1734,12 +1734,12 @@
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>1,34; 1,46</t>
+          <t>1,33; 1,45</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>1,68; 2,22</t>
+          <t>1,68; 2,25</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
@@ -1749,7 +1749,7 @@
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>1,28; 1,37</t>
+          <t>1,29; 1,36</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
@@ -1759,7 +1759,7 @@
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>1,37; 1,71</t>
+          <t>1,37; 1,75</t>
         </is>
       </c>
     </row>
